--- a/Reports/heart/heart_tabfairgan_50_05.xlsx
+++ b/Reports/heart/heart_tabfairgan_50_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0781</v>
+        <v>0.0853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.0853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.1903</v>
+        <v>1.1732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.1984</v>
+        <v>0.9602000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1744</v>
+        <v>-0.1227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.3542</v>
+        <v>0.7652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0769</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.137</v>
+        <v>1.1466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1037</v>
+        <v>-0.0204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0013</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6728</v>
+        <v>0.6173999999999999</v>
       </c>
     </row>
     <row r="13">
